--- a/IndexedWords.xlsx
+++ b/IndexedWords.xlsx
@@ -20,1654 +20,1654 @@
     <t>Occurances</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>them</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>laws</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>among</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>assent</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>powers</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>abolishing</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>colonies</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>mankind</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>refused</t>
+  </si>
+  <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
+    <t>seas</t>
+  </si>
+  <si>
+    <t>themselves</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>usurpations</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>acts</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>armies</t>
+  </si>
+  <si>
+    <t>becomes</t>
+  </si>
+  <si>
+    <t>bodies</t>
+  </si>
+  <si>
+    <t>brethren</t>
+  </si>
+  <si>
+    <t>britain</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>circumstances</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>declaration</t>
+  </si>
+  <si>
+    <t>declare</t>
+  </si>
+  <si>
+    <t>declaring</t>
+  </si>
+  <si>
+    <t>dissolved</t>
+  </si>
+  <si>
+    <t>endeavoured</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>establishing</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>forms</t>
+  </si>
+  <si>
+    <t>governments</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>hither</t>
+  </si>
+  <si>
     <t>inhabitants</t>
   </si>
   <si>
-    <t>been</t>
+    <t>into</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>legislative</t>
+  </si>
+  <si>
+    <t>legislature</t>
+  </si>
+  <si>
+    <t>lives</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>necessity</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>offices</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ought</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>peoplehe</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>pretended</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>refusing</t>
+  </si>
+  <si>
+    <t>render</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>suspended</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>totally</t>
+  </si>
+  <si>
+    <t>transporting</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>tyranny</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>whose</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>abdicated</t>
+  </si>
+  <si>
+    <t>abolish</t>
+  </si>
+  <si>
+    <t>absolved</t>
+  </si>
+  <si>
+    <t>abuses</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>accordingly</t>
+  </si>
+  <si>
+    <t>accustomed</t>
+  </si>
+  <si>
+    <t>acquiesce</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>administration</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>allegiance</t>
+  </si>
+  <si>
+    <t>alliances</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>altering</t>
+  </si>
+  <si>
+    <t>amongst</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>annihilation</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>answered</t>
+  </si>
+  <si>
+    <t>appealed</t>
+  </si>
+  <si>
+    <t>appealing</t>
+  </si>
+  <si>
+    <t>appropriations</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>armed</t>
+  </si>
+  <si>
+    <t>arms</t>
+  </si>
+  <si>
+    <t>assembled</t>
+  </si>
+  <si>
+    <t>assume</t>
+  </si>
+  <si>
+    <t>attempts</t>
+  </si>
+  <si>
+    <t>attend</t>
+  </si>
+  <si>
+    <t>attentions</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>bands</t>
+  </si>
+  <si>
+    <t>barbarous</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>begun</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>boundaries</t>
   </si>
   <si>
     <t>bring</t>
   </si>
   <si>
+    <t>british</t>
+  </si>
+  <si>
+    <t>brittish</t>
+  </si>
+  <si>
+    <t>burnt</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>called</t>
+  </si>
+  <si>
+    <t>candid</t>
+  </si>
+  <si>
+    <t>captive</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>charters</t>
+  </si>
+  <si>
+    <t>citizens</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>civilized</t>
+  </si>
+  <si>
+    <t>coasts</t>
+  </si>
+  <si>
+    <t>coloniesfor</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>commerce</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>compleat</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>conditionsin</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>conjured</t>
+  </si>
+  <si>
+    <t>connected</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>connections</t>
+  </si>
+  <si>
+    <t>consanguinity</t>
+  </si>
+  <si>
+    <t>consentfor</t>
+  </si>
+  <si>
+    <t>constitution</t>
+  </si>
+  <si>
+    <t>constrained</t>
+  </si>
+  <si>
+    <t>constrains</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>convulsions</t>
+  </si>
+  <si>
+    <t>correspondence</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>crown</t>
+  </si>
+  <si>
+    <t>cruelty</t>
+  </si>
+  <si>
+    <t>cutting</t>
+  </si>
+  <si>
+    <t>dangers</t>
+  </si>
+  <si>
+    <t>deaf</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>denounces</t>
+  </si>
+  <si>
+    <t>dependent</t>
+  </si>
+  <si>
+    <t>depository</t>
+  </si>
+  <si>
+    <t>depriving</t>
+  </si>
+  <si>
+    <t>deriving</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>desolation</t>
+  </si>
+  <si>
+    <t>despotism</t>
+  </si>
+  <si>
+    <t>destroyed</t>
+  </si>
+  <si>
+    <t>destruction</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>dictate</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>disavow</t>
+  </si>
+  <si>
+    <t>disposed</t>
+  </si>
+  <si>
+    <t>dissolutions</t>
+  </si>
+  <si>
+    <t>dissolve</t>
+  </si>
+  <si>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>districts</t>
+  </si>
+  <si>
+    <t>divine</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>duty</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>elected</t>
+  </si>
+  <si>
+    <t>emigration</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>endowed</t>
+  </si>
+  <si>
+    <t>ends</t>
+  </si>
+  <si>
+    <t>enemies</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>enlarging</t>
+  </si>
+  <si>
+    <t>entitle</t>
+  </si>
+  <si>
+    <t>erected</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>established</t>
+  </si>
+  <si>
+    <t>establishment</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>evils</t>
+  </si>
+  <si>
+    <t>evinces</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>executioners</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>exposed</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>facts</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>fatiguing</t>
+  </si>
+  <si>
+    <t>fellow</t>
+  </si>
+  <si>
+    <t>firm</t>
+  </si>
+  <si>
+    <t>firmness</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>forbidden</t>
+  </si>
+  <si>
+    <t>foreigners</t>
+  </si>
+  <si>
+    <t>former</t>
+  </si>
+  <si>
+    <t>formidable</t>
+  </si>
+  <si>
+    <t>fortunes</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>friendswe</t>
+  </si>
+  <si>
+    <t>frontiers</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>fundamentally</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>goodhe</t>
+  </si>
+  <si>
+    <t>governed</t>
+  </si>
+  <si>
+    <t>governmentsfor</t>
+  </si>
+  <si>
+    <t>governors</t>
+  </si>
+  <si>
+    <t>guards</t>
+  </si>
+  <si>
+    <t>handshe</t>
+  </si>
+  <si>
+    <t>happiness</t>
+  </si>
+  <si>
+    <t>happinessthat</t>
+  </si>
+  <si>
+    <t>harrass</t>
+  </si>
+  <si>
+    <t>hath</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>honor</t>
+  </si>
+  <si>
+    <t>houses</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>humble</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>impel</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>imposing</t>
+  </si>
+  <si>
+    <t>incapable</t>
+  </si>
+  <si>
+    <t>indeed</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>inestimable</t>
+  </si>
+  <si>
+    <t>inevitably</t>
+  </si>
+  <si>
+    <t>injuries</t>
+  </si>
+  <si>
+    <t>injury</t>
+  </si>
+  <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>instituted</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>insurrections</t>
+  </si>
+  <si>
+    <t>intentions</t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>introducing</t>
+  </si>
+  <si>
+    <t>invariably</t>
+  </si>
+  <si>
+    <t>invasion</t>
+  </si>
+  <si>
+    <t>invasions</t>
+  </si>
+  <si>
+    <t>invested</t>
+  </si>
+  <si>
+    <t>judge</t>
+  </si>
+  <si>
+    <t>judges</t>
+  </si>
+  <si>
+    <t>judiciary</t>
+  </si>
+  <si>
+    <t>juryfor</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>kept</t>
+  </si>
+  <si>
+    <t>kindred</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>landshe</t>
+  </si>
+  <si>
+    <t>laying</t>
+  </si>
+  <si>
+    <t>legislate</t>
+  </si>
+  <si>
+    <t>legislationfor</t>
+  </si>
+  <si>
+    <t>legislatures</t>
+  </si>
+  <si>
+    <t>legislatureshe</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>levy</t>
+  </si>
+  <si>
+    <t>liberty</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>likely</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>magnanimity</t>
+  </si>
+  <si>
+    <t>manly</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>marked</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>measureshe</t>
+  </si>
+  <si>
+    <t>mercenaries</t>
+  </si>
+  <si>
+    <t>merciless</t>
+  </si>
+  <si>
+    <t>migrations</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>mock</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>multitude</t>
+  </si>
+  <si>
+    <t>murders</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
     <t>mutually</t>
   </si>
   <si>
-    <t>without</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nationhe</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>naturalization</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>natures</t>
+  </si>
+  <si>
+    <t>neglected</t>
+  </si>
+  <si>
+    <t>neighbouring</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>obstructed</t>
+  </si>
+  <si>
+    <t>obstructing</t>
+  </si>
+  <si>
+    <t>obtained</t>
+  </si>
+  <si>
+    <t>offencesfor</t>
+  </si>
+  <si>
+    <t>officers</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>onlyhe</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>opinions</t>
+  </si>
+  <si>
+    <t>opposing</t>
+  </si>
+  <si>
+    <t>oppressions</t>
+  </si>
+  <si>
+    <t>organizing</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>paralleled</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>peoplenor</t>
+  </si>
+  <si>
+    <t>perfidy</t>
+  </si>
+  <si>
+    <t>petitioned</t>
+  </si>
+  <si>
+    <t>petitions</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>pledge</t>
+  </si>
+  <si>
+    <t>plundered</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>powerhe</t>
+  </si>
+  <si>
+    <t>powershe</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>pressing</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>principles</t>
+  </si>
+  <si>
+    <t>protecting</t>
+  </si>
+  <si>
+    <t>prove</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>providence</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>prudence</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>punishment</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>pursuit</t>
+  </si>
+  <si>
+    <t>quartering</t>
+  </si>
+  <si>
+    <t>raising</t>
+  </si>
+  <si>
+    <t>ravaged</t>
+  </si>
+  <si>
+    <t>records</t>
   </si>
   <si>
     <t>rectitude</t>
   </si>
   <si>
-    <t>guards</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>redress</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>reliance</t>
+  </si>
+  <si>
+    <t>relinquish</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>reminded</t>
+  </si>
+  <si>
+    <t>repeatedly</t>
+  </si>
+  <si>
+    <t>representation</t>
+  </si>
+  <si>
+    <t>representative</t>
+  </si>
+  <si>
+    <t>representatives</t>
+  </si>
+  <si>
+    <t>requires</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>sacred</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>salarieshe</t>
+  </si>
+  <si>
+    <t>savages</t>
+  </si>
+  <si>
+    <t>scarcely</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>securitysuch</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>selfevident</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>separate</t>
+  </si>
+  <si>
+    <t>separation</t>
+  </si>
+  <si>
+    <t>separationwe</t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>sexes</t>
+  </si>
+  <si>
+    <t>shall</t>
+  </si>
+  <si>
+    <t>shewn</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>solemnly</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>standing</t>
+  </si>
+  <si>
+    <t>statesfor</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>submitted</t>
+  </si>
+  <si>
+    <t>substancehe</t>
   </si>
   <si>
     <t>suffer</t>
   </si>
   <si>
-    <t>would</t>
+    <t>sufferable</t>
+  </si>
+  <si>
+    <t>sufferance</t>
+  </si>
+  <si>
+    <t>superior</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>suspending</t>
+  </si>
+  <si>
+    <t>swarms</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>systems</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>tenure</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>themhe</t>
+  </si>
+  <si>
+    <t>therein</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>those</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>thus</t>
+  </si>
+  <si>
+    <t>ties</t>
+  </si>
+  <si>
+    <t>till</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>towns</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>troops</t>
+  </si>
+  <si>
+    <t>truths</t>
+  </si>
+  <si>
+    <t>tyrant</t>
+  </si>
+  <si>
+    <t>tyrants</t>
+  </si>
+  <si>
+    <t>unacknowledged</t>
+  </si>
+  <si>
+    <t>unalienable</t>
   </si>
   <si>
     <t>unanimous</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>undistinguished</t>
+  </si>
+  <si>
+    <t>unfit</t>
+  </si>
+  <si>
+    <t>unusual</t>
+  </si>
+  <si>
+    <t>unwarrantable</t>
+  </si>
+  <si>
+    <t>unworthy</t>
+  </si>
+  <si>
+    <t>usfor</t>
+  </si>
+  <si>
+    <t>ushe</t>
+  </si>
+  <si>
+    <t>utterly</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>waging</t>
+  </si>
+  <si>
+    <t>wanting</t>
+  </si>
+  <si>
     <t>warfare</t>
   </si>
   <si>
-    <t>powerhe</t>
-  </si>
-  <si>
-    <t>insurrections</t>
-  </si>
-  <si>
-    <t>thus</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>unalienable</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>ushe</t>
-  </si>
-  <si>
-    <t>whose</t>
-  </si>
-  <si>
-    <t>former</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>extend</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>submitted</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>transient</t>
-  </si>
-  <si>
-    <t>peace</t>
-  </si>
-  <si>
-    <t>institute</t>
-  </si>
-  <si>
-    <t>prudence</t>
-  </si>
-  <si>
-    <t>executioners</t>
-  </si>
-  <si>
-    <t>statesfor</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>humble</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>prove</t>
-  </si>
-  <si>
-    <t>independent</t>
-  </si>
-  <si>
-    <t>bodies</t>
-  </si>
-  <si>
-    <t>deaf</t>
-  </si>
-  <si>
-    <t>abuses</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>systems</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>relinquish</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>scarcely</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>absolved</t>
-  </si>
-  <si>
-    <t>goodhe</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>constrained</t>
-  </si>
-  <si>
-    <t>destroyed</t>
-  </si>
-  <si>
-    <t>invasion</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>throw</t>
-  </si>
-  <si>
-    <t>plundered</t>
-  </si>
-  <si>
-    <t>combined</t>
-  </si>
-  <si>
-    <t>under</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>unfit</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>citizens</t>
-  </si>
-  <si>
-    <t>impel</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>evils</t>
-  </si>
-  <si>
-    <t>obstructing</t>
-  </si>
-  <si>
-    <t>boundaries</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>which</t>
-  </si>
-  <si>
-    <t>savages</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>handshe</t>
-  </si>
-  <si>
-    <t>intentions</t>
-  </si>
-  <si>
-    <t>consent</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>neglected</t>
-  </si>
-  <si>
-    <t>consentfor</t>
-  </si>
-  <si>
-    <t>immediate</t>
-  </si>
-  <si>
-    <t>consanguinity</t>
-  </si>
-  <si>
-    <t>authority</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>therefore</t>
-  </si>
-  <si>
-    <t>perfidy</t>
-  </si>
-  <si>
-    <t>necessity</t>
-  </si>
-  <si>
-    <t>legislature</t>
-  </si>
-  <si>
-    <t>united</t>
-  </si>
-  <si>
-    <t>importance</t>
-  </si>
-  <si>
-    <t>instrument</t>
-  </si>
-  <si>
-    <t>representation</t>
-  </si>
-  <si>
-    <t>states</t>
-  </si>
-  <si>
-    <t>prevent</t>
-  </si>
-  <si>
-    <t>happiness</t>
-  </si>
-  <si>
-    <t>candid</t>
-  </si>
-  <si>
-    <t>evinces</t>
-  </si>
-  <si>
-    <t>exposed</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>incapable</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>sole</t>
-  </si>
-  <si>
-    <t>depriving</t>
-  </si>
-  <si>
-    <t>governors</t>
-  </si>
-  <si>
-    <t>endeavoured</t>
-  </si>
-  <si>
-    <t>mercenaries</t>
-  </si>
-  <si>
-    <t>tyrant</t>
-  </si>
-  <si>
-    <t>kept</t>
-  </si>
-  <si>
-    <t>legislationfor</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>publish</t>
-  </si>
-  <si>
-    <t>pledge</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>appealing</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>fortunes</t>
-  </si>
-  <si>
-    <t>shewn</t>
-  </si>
-  <si>
-    <t>wanting</t>
-  </si>
-  <si>
-    <t>called</t>
-  </si>
-  <si>
-    <t>foreigners</t>
-  </si>
-  <si>
-    <t>armies</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>therein</t>
-  </si>
-  <si>
-    <t>divine</t>
-  </si>
-  <si>
-    <t>america</t>
-  </si>
-  <si>
-    <t>legislative</t>
-  </si>
-  <si>
-    <t>sexes</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>brethren</t>
-  </si>
-  <si>
-    <t>coloniesfor</t>
-  </si>
-  <si>
-    <t>paralleled</t>
-  </si>
-  <si>
-    <t>judge</t>
-  </si>
-  <si>
-    <t>hath</t>
-  </si>
-  <si>
-    <t>burnt</t>
-  </si>
-  <si>
-    <t>crown</t>
-  </si>
-  <si>
-    <t>reduce</t>
-  </si>
-  <si>
-    <t>protecting</t>
-  </si>
-  <si>
-    <t>likely</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>altering</t>
-  </si>
-  <si>
-    <t>unwarrantable</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>distant</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>allegiance</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>suspended</t>
-  </si>
-  <si>
-    <t>petitions</t>
-  </si>
-  <si>
-    <t>erected</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>warned</t>
   </si>
   <si>
-    <t>fatiguing</t>
+    <t>whatsoeverhe</t>
+  </si>
+  <si>
+    <t>whenever</t>
   </si>
   <si>
     <t>whereby</t>
   </si>
   <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>legislatures</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>britain</t>
+    <t>while</t>
+  </si>
+  <si>
+    <t>wholesome</t>
+  </si>
+  <si>
+    <t>withinhe</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>against</t>
-  </si>
-  <si>
-    <t>pursuit</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>solemnly</t>
-  </si>
-  <si>
-    <t>bands</t>
-  </si>
-  <si>
-    <t>settlement</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
     <t>world</t>
   </si>
   <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>ravaged</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
-    <t>legislate</t>
-  </si>
-  <si>
-    <t>native</t>
-  </si>
-  <si>
-    <t>too</t>
-  </si>
-  <si>
-    <t>rights</t>
-  </si>
-  <si>
-    <t>charters</t>
-  </si>
-  <si>
-    <t>dissolve</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>sacred</t>
-  </si>
-  <si>
-    <t>withinhe</t>
-  </si>
-  <si>
-    <t>accordingly</t>
-  </si>
-  <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>desolation</t>
-  </si>
-  <si>
-    <t>selfevident</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>murders</t>
-  </si>
-  <si>
-    <t>places</t>
-  </si>
-  <si>
-    <t>punishment</t>
-  </si>
-  <si>
-    <t>reminded</t>
-  </si>
-  <si>
-    <t>deriving</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>undistinguished</t>
-  </si>
-  <si>
-    <t>constrains</t>
-  </si>
-  <si>
-    <t>powers</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>honor</t>
-  </si>
-  <si>
-    <t>political</t>
-  </si>
-  <si>
-    <t>british</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>conditionsin</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>amongst</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>usurpations</t>
-  </si>
-  <si>
-    <t>colonies</t>
-  </si>
-  <si>
-    <t>representative</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>dissolutions</t>
-  </si>
-  <si>
-    <t>frontiers</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>circumstances</t>
-  </si>
-  <si>
-    <t>already</t>
-  </si>
-  <si>
-    <t>introducing</t>
-  </si>
-  <si>
-    <t>shall</t>
-  </si>
-  <si>
-    <t>establishment</t>
-  </si>
-  <si>
-    <t>friendswe</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>establish</t>
-  </si>
-  <si>
-    <t>becomes</t>
-  </si>
-  <si>
-    <t>principles</t>
-  </si>
-  <si>
-    <t>mock</t>
-  </si>
-  <si>
-    <t>arms</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>securitysuch</t>
-  </si>
-  <si>
-    <t>constitution</t>
-  </si>
-  <si>
-    <t>legislatureshe</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>levy</t>
-  </si>
-  <si>
-    <t>inestimable</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>ties</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>hither</t>
-  </si>
-  <si>
-    <t>petitioned</t>
-  </si>
-  <si>
-    <t>define</t>
-  </si>
-  <si>
-    <t>dictate</t>
-  </si>
-  <si>
-    <t>kindred</t>
-  </si>
-  <si>
-    <t>alliances</t>
-  </si>
-  <si>
-    <t>render</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>worldfor</t>
   </si>
   <si>
-    <t>imposing</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>pretended</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>disavow</t>
-  </si>
-  <si>
-    <t>convulsions</t>
-  </si>
-  <si>
-    <t>earth</t>
-  </si>
-  <si>
-    <t>accommodation</t>
-  </si>
-  <si>
-    <t>opinions</t>
-  </si>
-  <si>
-    <t>forms</t>
-  </si>
-  <si>
-    <t>barbarous</t>
-  </si>
-  <si>
-    <t>refusing</t>
-  </si>
-  <si>
-    <t>landshe</t>
-  </si>
-  <si>
-    <t>onlyhe</t>
-  </si>
-  <si>
-    <t>wholesome</t>
-  </si>
-  <si>
-    <t>establishing</t>
-  </si>
-  <si>
-    <t>commit</t>
-  </si>
-  <si>
-    <t>acts</t>
-  </si>
-  <si>
-    <t>firm</t>
-  </si>
-  <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>separationwe</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>liberty</t>
-  </si>
-  <si>
-    <t>inevitably</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>offencesfor</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>sufferance</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>injury</t>
-  </si>
-  <si>
-    <t>dissolved</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>they</t>
-  </si>
-  <si>
-    <t>mankind</t>
-  </si>
-  <si>
-    <t>them</t>
-  </si>
-  <si>
-    <t>sufferable</t>
-  </si>
-  <si>
-    <t>remaining</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>seas</t>
-  </si>
-  <si>
-    <t>acquiesce</t>
-  </si>
-  <si>
-    <t>tyrants</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>obtained</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>invested</t>
-  </si>
-  <si>
-    <t>transporting</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-  </si>
-  <si>
-    <t>manly</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>entitle</t>
-  </si>
-  <si>
-    <t>into</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>unless</t>
-  </si>
-  <si>
-    <t>taken</t>
-  </si>
-  <si>
-    <t>captive</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>destruction</t>
-  </si>
-  <si>
-    <t>ought</t>
-  </si>
-  <si>
-    <t>cruelty</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>laying</t>
-  </si>
-  <si>
-    <t>refused</t>
-  </si>
-  <si>
-    <t>correspondence</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>forbidden</t>
-  </si>
-  <si>
-    <t>enemies</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>declaration</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>connected</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>standing</t>
-  </si>
-  <si>
-    <t>absolute</t>
-  </si>
-  <si>
-    <t>armed</t>
-  </si>
-  <si>
-    <t>oppressions</t>
-  </si>
-  <si>
-    <t>representatives</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>till</t>
-  </si>
-  <si>
-    <t>separate</t>
-  </si>
-  <si>
-    <t>declare</t>
-  </si>
-  <si>
-    <t>attend</t>
-  </si>
-  <si>
-    <t>administration</t>
-  </si>
-  <si>
-    <t>offices</t>
-  </si>
-  <si>
-    <t>ruler</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>repeated</t>
-  </si>
-  <si>
-    <t>conjured</t>
-  </si>
-  <si>
-    <t>domestic</t>
-  </si>
-  <si>
-    <t>abdicated</t>
-  </si>
-  <si>
-    <t>whenever</t>
-  </si>
-  <si>
-    <t>separation</t>
-  </si>
-  <si>
-    <t>houses</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>military</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>unusual</t>
-  </si>
-  <si>
-    <t>abolishing</t>
-  </si>
-  <si>
-    <t>those</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>formidable</t>
-  </si>
-  <si>
-    <t>powershe</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>elected</t>
-  </si>
-  <si>
-    <t>enlarging</t>
-  </si>
-  <si>
-    <t>measureshe</t>
-  </si>
-  <si>
-    <t>once</t>
-  </si>
-  <si>
-    <t>towns</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>assume</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>compleat</t>
-  </si>
-  <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>records</t>
-  </si>
-  <si>
-    <t>abolish</t>
-  </si>
-  <si>
-    <t>rule</t>
-  </si>
-  <si>
-    <t>commerce</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>substancehe</t>
-  </si>
-  <si>
-    <t>fundamentally</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>peoplehe</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>declaring</t>
-  </si>
-  <si>
-    <t>ends</t>
-  </si>
-  <si>
-    <t>themselves</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>disposed</t>
-  </si>
-  <si>
-    <t>assent</t>
-  </si>
-  <si>
-    <t>assembled</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>opposing</t>
-  </si>
-  <si>
-    <t>cases</t>
-  </si>
-  <si>
-    <t>answered</t>
-  </si>
-  <si>
     <t>worldhe</t>
-  </si>
-  <si>
-    <t>attentions</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>indeed</t>
-  </si>
-  <si>
-    <t>whatsoeverhe</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>superior</t>
-  </si>
-  <si>
-    <t>duty</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>dangers</t>
-  </si>
-  <si>
-    <t>swarms</t>
-  </si>
-  <si>
-    <t>truths</t>
-  </si>
-  <si>
-    <t>annihilation</t>
-  </si>
-  <si>
-    <t>taxes</t>
-  </si>
-  <si>
-    <t>governments</t>
-  </si>
-  <si>
-    <t>when</t>
-  </si>
-  <si>
-    <t>troops</t>
-  </si>
-  <si>
-    <t>beyond</t>
-  </si>
-  <si>
-    <t>terms</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>connection</t>
-  </si>
-  <si>
-    <t>dependent</t>
-  </si>
-  <si>
-    <t>between</t>
-  </si>
-  <si>
-    <t>attempts</t>
-  </si>
-  <si>
-    <t>laws</t>
-  </si>
-  <si>
-    <t>having</t>
-  </si>
-  <si>
-    <t>lives</t>
-  </si>
-  <si>
-    <t>emigration</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>instituted</t>
-  </si>
-  <si>
-    <t>conclude</t>
-  </si>
-  <si>
-    <t>supreme</t>
-  </si>
-  <si>
-    <t>invasions</t>
-  </si>
-  <si>
-    <t>merciless</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>providence</t>
-  </si>
-  <si>
-    <t>among</t>
-  </si>
-  <si>
-    <t>peoplenor</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>requires</t>
-  </si>
-  <si>
-    <t>neighbouring</t>
-  </si>
-  <si>
-    <t>salarieshe</t>
-  </si>
-  <si>
-    <t>civilized</t>
-  </si>
-  <si>
-    <t>direct</t>
-  </si>
-  <si>
-    <t>districts</t>
-  </si>
-  <si>
-    <t>magnanimity</t>
-  </si>
-  <si>
-    <t>exercise</t>
-  </si>
-  <si>
-    <t>foundation</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>pressing</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>unacknowledged</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>established</t>
-  </si>
-  <si>
-    <t>harrass</t>
-  </si>
-  <si>
-    <t>reliance</t>
-  </si>
-  <si>
-    <t>happinessthat</t>
-  </si>
-  <si>
-    <t>multitude</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>nationhe</t>
-  </si>
-  <si>
-    <t>redress</t>
-  </si>
-  <si>
-    <t>firmness</t>
-  </si>
-  <si>
-    <t>fellow</t>
-  </si>
-  <si>
-    <t>cutting</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>organizing</t>
-  </si>
-  <si>
-    <t>certain</t>
-  </si>
-  <si>
-    <t>waging</t>
-  </si>
-  <si>
-    <t>indian</t>
-  </si>
-  <si>
-    <t>governed</t>
-  </si>
-  <si>
-    <t>voice</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>tyranny</t>
-  </si>
-  <si>
-    <t>injuries</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>begun</t>
-  </si>
-  <si>
-    <t>appealed</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>utterly</t>
-  </si>
-  <si>
-    <t>his</t>
-  </si>
-  <si>
-    <t>should</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>interrupt</t>
-  </si>
-  <si>
-    <t>justice</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>suspending</t>
-  </si>
-  <si>
-    <t>bear</t>
-  </si>
-  <si>
-    <t>totally</t>
-  </si>
-  <si>
-    <t>accustomed</t>
-  </si>
-  <si>
-    <t>tenure</t>
-  </si>
-  <si>
-    <t>connections</t>
-  </si>
-  <si>
-    <t>officers</t>
-  </si>
-  <si>
-    <t>raising</t>
-  </si>
-  <si>
-    <t>governmentsfor</t>
-  </si>
-  <si>
-    <t>marked</t>
-  </si>
-  <si>
-    <t>natures</t>
-  </si>
-  <si>
-    <t>repeatedly</t>
-  </si>
-  <si>
-    <t>appropriations</t>
-  </si>
-  <si>
-    <t>coasts</t>
-  </si>
-  <si>
-    <t>king</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>obstructed</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>judges</t>
-  </si>
-  <si>
-    <t>unworthy</t>
-  </si>
-  <si>
-    <t>invariably</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>themhe</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>judiciary</t>
-  </si>
-  <si>
-    <t>usfor</t>
-  </si>
-  <si>
-    <t>juryfor</t>
-  </si>
-  <si>
-    <t>thirteen</t>
-  </si>
-  <si>
-    <t>despotism</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>alone</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>naturalization</t>
-  </si>
-  <si>
-    <t>depository</t>
-  </si>
-  <si>
-    <t>denounces</t>
-  </si>
-  <si>
-    <t>endowed</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>arbitrary</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>migrations</t>
-  </si>
-  <si>
-    <t>compliance</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>quartering</t>
-  </si>
-  <si>
-    <t>brittish</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
@@ -1770,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
@@ -1778,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
@@ -1794,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -1818,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -1834,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
@@ -1842,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
@@ -1858,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
@@ -1866,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
@@ -1874,7 +1874,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
@@ -1882,7 +1882,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
@@ -1890,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
@@ -1898,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
@@ -1906,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
@@ -1914,7 +1914,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
@@ -1922,7 +1922,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="24">
@@ -1930,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="25">
@@ -1938,7 +1938,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="26">
@@ -1946,7 +1946,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="27">
@@ -1954,7 +1954,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -1962,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -1970,7 +1970,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -1978,7 +1978,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -1986,7 +1986,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -1994,7 +1994,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
@@ -2002,7 +2002,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -2010,7 +2010,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -2018,7 +2018,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
@@ -2026,7 +2026,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
@@ -2034,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
@@ -2042,7 +2042,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
@@ -2050,7 +2050,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
@@ -2066,7 +2066,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="42">
@@ -2074,7 +2074,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="43">
@@ -2082,7 +2082,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
@@ -2090,7 +2090,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
@@ -2098,7 +2098,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -2106,7 +2106,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -2114,7 +2114,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -2122,7 +2122,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
@@ -2130,7 +2130,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
@@ -2138,7 +2138,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
@@ -2146,7 +2146,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -2154,7 +2154,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
@@ -2162,7 +2162,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -2170,7 +2170,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -2178,7 +2178,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -2186,7 +2186,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -2194,7 +2194,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -2202,7 +2202,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -2210,7 +2210,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
@@ -2218,7 +2218,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
@@ -2226,7 +2226,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -2234,7 +2234,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
@@ -2242,7 +2242,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
@@ -2250,7 +2250,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -2258,7 +2258,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -2266,7 +2266,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
@@ -2274,7 +2274,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
@@ -2282,7 +2282,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
@@ -2290,7 +2290,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -2298,7 +2298,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -2306,7 +2306,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
@@ -2314,7 +2314,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -2322,7 +2322,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -2330,7 +2330,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
@@ -2338,7 +2338,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -2346,7 +2346,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
@@ -2354,7 +2354,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -2362,7 +2362,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -2370,7 +2370,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
@@ -2378,7 +2378,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
@@ -2386,7 +2386,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -2394,7 +2394,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -2410,7 +2410,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
@@ -2418,7 +2418,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
@@ -2426,7 +2426,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
@@ -2434,7 +2434,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
@@ -2442,7 +2442,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="89">
@@ -2450,7 +2450,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="90">
@@ -2458,7 +2458,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="91">
@@ -2474,7 +2474,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="93">
@@ -2498,7 +2498,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="96">
@@ -2506,7 +2506,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="97">
@@ -2514,7 +2514,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="98">
@@ -2522,7 +2522,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="99">
@@ -2530,7 +2530,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
@@ -2538,7 +2538,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="101">
@@ -2546,7 +2546,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="102">
@@ -2554,7 +2554,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="103">
@@ -2562,7 +2562,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="104">
@@ -2570,7 +2570,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
@@ -2578,7 +2578,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="106">
@@ -2586,7 +2586,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="107">
@@ -2594,7 +2594,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="108">
@@ -2602,7 +2602,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="109">
@@ -2618,7 +2618,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111">
@@ -2626,7 +2626,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="112">
@@ -2634,7 +2634,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113">
@@ -2650,7 +2650,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="115">
@@ -2658,7 +2658,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="116">
@@ -2666,7 +2666,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="117">
@@ -2674,7 +2674,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="118">
@@ -2682,7 +2682,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n" s="0">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="119">
@@ -2698,7 +2698,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
@@ -2706,7 +2706,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="122">
@@ -2714,7 +2714,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="123">
@@ -2722,7 +2722,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="124">
@@ -2730,7 +2730,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="125">
@@ -2738,7 +2738,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="126">
@@ -2746,7 +2746,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="127">
@@ -2754,7 +2754,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="128">
@@ -2762,7 +2762,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="129">
@@ -2770,7 +2770,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="130">
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="132">
@@ -2794,7 +2794,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="133">
@@ -2802,7 +2802,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="134">
@@ -2826,7 +2826,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="137">
@@ -2834,7 +2834,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="138">
@@ -2850,7 +2850,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="140">
@@ -2922,7 +2922,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -2930,7 +2930,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="n" s="0">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
@@ -2970,7 +2970,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="n" s="0">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="155">
@@ -2986,7 +2986,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="157">
@@ -2994,7 +2994,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="158">
@@ -3066,7 +3066,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="167">
@@ -3074,7 +3074,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="168">
@@ -3090,7 +3090,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="170">
@@ -3106,7 +3106,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="172">
@@ -3138,7 +3138,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
@@ -3202,7 +3202,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="184">
@@ -3226,7 +3226,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="n" s="0">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="187">
@@ -3274,7 +3274,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="193">
@@ -3298,7 +3298,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="196">
@@ -3370,7 +3370,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="205">
@@ -3394,7 +3394,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="208">
@@ -3426,7 +3426,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="212">
@@ -3434,7 +3434,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="n" s="0">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="213">
@@ -3466,7 +3466,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="217">
@@ -3474,7 +3474,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="218">
@@ -3490,7 +3490,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
@@ -3498,7 +3498,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="n" s="0">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="221">
@@ -3522,7 +3522,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="224">
@@ -3530,7 +3530,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="225">
@@ -3602,7 +3602,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="234">
@@ -3722,7 +3722,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="249">
@@ -3738,7 +3738,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="251">
@@ -3786,7 +3786,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="257">
@@ -3794,7 +3794,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="n" s="0">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="258">
@@ -3818,7 +3818,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="261">
@@ -3834,7 +3834,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="263">
@@ -3842,7 +3842,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="264">
@@ -3890,7 +3890,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="270">
@@ -3906,7 +3906,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="272">
@@ -3938,7 +3938,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="276">
@@ -3954,7 +3954,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="278">
@@ -4042,7 +4042,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="289">
@@ -4058,7 +4058,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="291">
@@ -4074,7 +4074,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="293">
@@ -4082,7 +4082,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="294">
@@ -4090,7 +4090,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="n" s="0">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="295">
@@ -4122,7 +4122,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="299">
@@ -4178,7 +4178,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="306">
@@ -4194,7 +4194,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="308">
@@ -4226,7 +4226,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="312">
@@ -4250,7 +4250,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="315">
@@ -4258,7 +4258,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="n" s="0">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="316">
@@ -4266,7 +4266,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="317">
@@ -4290,7 +4290,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="320">
@@ -4298,7 +4298,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="321">
@@ -4314,7 +4314,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="323">
@@ -4330,7 +4330,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="325">
@@ -4346,7 +4346,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="327">
@@ -4394,7 +4394,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="333">
@@ -4402,7 +4402,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="334">
@@ -4418,7 +4418,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="336">
@@ -4434,7 +4434,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="338">
@@ -4506,7 +4506,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="347">
@@ -4530,7 +4530,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="350">
@@ -4554,7 +4554,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="353">
@@ -4626,7 +4626,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="n" s="0">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="362">
@@ -4642,7 +4642,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="364">
@@ -4658,7 +4658,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="n" s="0">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="366">
@@ -4682,7 +4682,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="369">
@@ -4818,7 +4818,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="386">
@@ -4842,7 +4842,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="n" s="0">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="389">
@@ -4874,7 +4874,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="393">
@@ -4890,7 +4890,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="395">
@@ -4906,7 +4906,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="397">
@@ -4930,7 +4930,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="400">
@@ -4946,7 +4946,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="402">
@@ -4962,7 +4962,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="404">
@@ -4994,7 +4994,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="408">
@@ -5018,7 +5018,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="411">
@@ -5042,7 +5042,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="414">
@@ -5090,7 +5090,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="420">
@@ -5098,7 +5098,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="421">
@@ -5178,7 +5178,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="n" s="0">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="431">
@@ -5194,7 +5194,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="433">
@@ -5282,7 +5282,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="444">
@@ -5378,7 +5378,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="n" s="0">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="456">
@@ -5386,7 +5386,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="457">
@@ -5394,7 +5394,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="458">
@@ -5418,7 +5418,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="461">
@@ -5450,7 +5450,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="465">
@@ -5506,7 +5506,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="472">
@@ -5562,7 +5562,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="479">
@@ -5626,7 +5626,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="487">
@@ -5682,7 +5682,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="n" s="0">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="494">
@@ -5690,7 +5690,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="495">
@@ -5714,7 +5714,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="498">
@@ -5722,7 +5722,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="499">
@@ -5746,7 +5746,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="502">
@@ -5858,7 +5858,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="516">
@@ -5882,7 +5882,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="519">
@@ -5922,7 +5922,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="524">
@@ -5946,7 +5946,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="527">
@@ -5954,7 +5954,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="n" s="0">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="528">
@@ -6018,7 +6018,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="536">
@@ -6090,7 +6090,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="545">
